--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19246" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9330" uniqueCount="819">
   <si>
     <t>ANSPs</t>
   </si>
@@ -2738,363 +2738,6 @@
   </si>
   <si>
     <t>2.10194</t>
-  </si>
-  <si>
-    <t>3.05739e-006</t>
-  </si>
-  <si>
-    <t>0.00111607</t>
-  </si>
-  <si>
-    <t>0.000369237</t>
-  </si>
-  <si>
-    <t>1.10771e-010</t>
-  </si>
-  <si>
-    <t>1.67241</t>
-  </si>
-  <si>
-    <t>0.193214</t>
-  </si>
-  <si>
-    <t>0.317168</t>
-  </si>
-  <si>
-    <t>0.0622929</t>
-  </si>
-  <si>
-    <t>0.937707</t>
-  </si>
-  <si>
-    <t>90851</t>
-  </si>
-  <si>
-    <t>574880</t>
-  </si>
-  <si>
-    <t>217081</t>
-  </si>
-  <si>
-    <t>188.097</t>
-  </si>
-  <si>
-    <t>883000</t>
-  </si>
-  <si>
-    <t>0.32089</t>
-  </si>
-  <si>
-    <t>0.67911</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.0495745</t>
-  </si>
-  <si>
-    <t>0.933693</t>
-  </si>
-  <si>
-    <t>0.0167325</t>
-  </si>
-  <si>
-    <t>1.48928</t>
-  </si>
-  <si>
-    <t>0.767641</t>
-  </si>
-  <si>
-    <t>0.568309</t>
-  </si>
-  <si>
-    <t>1.35075</t>
-  </si>
-  <si>
-    <t>1.75961</t>
-  </si>
-  <si>
-    <t>1.71105e-006</t>
-  </si>
-  <si>
-    <t>0.00138122</t>
-  </si>
-  <si>
-    <t>2.90936e-008</t>
-  </si>
-  <si>
-    <t>7.51698e-008</t>
-  </si>
-  <si>
-    <t>0.00028243</t>
-  </si>
-  <si>
-    <t>0.101675</t>
-  </si>
-  <si>
-    <t>0.511761</t>
-  </si>
-  <si>
-    <t>0.378873</t>
-  </si>
-  <si>
-    <t>0.887891</t>
-  </si>
-  <si>
-    <t>0.112109</t>
-  </si>
-  <si>
-    <t>14.7845</t>
-  </si>
-  <si>
-    <t>82751</t>
-  </si>
-  <si>
-    <t>75162.7</t>
-  </si>
-  <si>
-    <t>35.83</t>
-  </si>
-  <si>
-    <t>157964</t>
-  </si>
-  <si>
-    <t>0.684982</t>
-  </si>
-  <si>
-    <t>0.251308</t>
-  </si>
-  <si>
-    <t>0.0637104</t>
-  </si>
-  <si>
-    <t>0.758554</t>
-  </si>
-  <si>
-    <t>0.126231</t>
-  </si>
-  <si>
-    <t>0.737607</t>
-  </si>
-  <si>
-    <t>0.136163</t>
-  </si>
-  <si>
-    <t>1.31351</t>
-  </si>
-  <si>
-    <t>1.16199</t>
-  </si>
-  <si>
-    <t>0.0313476</t>
-  </si>
-  <si>
-    <t>0.756315</t>
-  </si>
-  <si>
-    <t>1.53638</t>
-  </si>
-  <si>
-    <t>0.0414478</t>
-  </si>
-  <si>
-    <t>1.3222</t>
-  </si>
-  <si>
-    <t>0.000115678</t>
-  </si>
-  <si>
-    <t>0.00549451</t>
-  </si>
-  <si>
-    <t>1.10103e-005</t>
-  </si>
-  <si>
-    <t>4.81601e-008</t>
-  </si>
-  <si>
-    <t>0.00275245</t>
-  </si>
-  <si>
-    <t>0.00825734</t>
-  </si>
-  <si>
-    <t>0.77466</t>
-  </si>
-  <si>
-    <t>0.0208984</t>
-  </si>
-  <si>
-    <t>0.50421</t>
-  </si>
-  <si>
-    <t>0.528475</t>
-  </si>
-  <si>
-    <t>0.471525</t>
-  </si>
-  <si>
-    <t>123.151</t>
-  </si>
-  <si>
-    <t>337111</t>
-  </si>
-  <si>
-    <t>87263.5</t>
-  </si>
-  <si>
-    <t>133.669</t>
-  </si>
-  <si>
-    <t>424632</t>
-  </si>
-  <si>
-    <t>0.00505311</t>
-  </si>
-  <si>
-    <t>0.712055</t>
-  </si>
-  <si>
-    <t>0.282892</t>
-  </si>
-  <si>
-    <t>0.691427</t>
-  </si>
-  <si>
-    <t>0.0240635</t>
-  </si>
-  <si>
-    <t>0.565294</t>
-  </si>
-  <si>
-    <t>0.410642</t>
-  </si>
-  <si>
-    <t>1.40252</t>
-  </si>
-  <si>
-    <t>2.71878</t>
-  </si>
-  <si>
-    <t>0.330104</t>
-  </si>
-  <si>
-    <t>0.620951</t>
-  </si>
-  <si>
-    <t>4.3784</t>
-  </si>
-  <si>
-    <t>0.531609</t>
-  </si>
-  <si>
-    <t>1.61043</t>
-  </si>
-  <si>
-    <t>6.50212e-006</t>
-  </si>
-  <si>
-    <t>0.00180505</t>
-  </si>
-  <si>
-    <t>2.53125e-009</t>
-  </si>
-  <si>
-    <t>6.09025e-009</t>
-  </si>
-  <si>
-    <t>0.000698079</t>
-  </si>
-  <si>
-    <t>0.00418848</t>
-  </si>
-  <si>
-    <t>1.81252</t>
-  </si>
-  <si>
-    <t>0.220069</t>
-  </si>
-  <si>
-    <t>0.413968</t>
-  </si>
-  <si>
-    <t>0.00990632</t>
-  </si>
-  <si>
-    <t>0.990094</t>
-  </si>
-  <si>
-    <t>549.096</t>
-  </si>
-  <si>
-    <t>1.36254e+006</t>
-  </si>
-  <si>
-    <t>316340</t>
-  </si>
-  <si>
-    <t>296.87</t>
-  </si>
-  <si>
-    <t>1.67973e+006</t>
-  </si>
-  <si>
-    <t>0.134143</t>
-  </si>
-  <si>
-    <t>0.823573</t>
-  </si>
-  <si>
-    <t>0.0422835</t>
-  </si>
-  <si>
-    <t>0.442709</t>
-  </si>
-  <si>
-    <t>0.338942</t>
-  </si>
-  <si>
-    <t>0.529608</t>
-  </si>
-  <si>
-    <t>0.131449</t>
-  </si>
-  <si>
-    <t>2.16153</t>
-  </si>
-  <si>
-    <t>3.73991</t>
-  </si>
-  <si>
-    <t>0.341239</t>
-  </si>
-  <si>
-    <t>-1.38198e-009</t>
-  </si>
-  <si>
-    <t>10.9598</t>
-  </si>
-  <si>
-    <t>2.9305</t>
-  </si>
-  <si>
-    <t>3.20735e-006</t>
-  </si>
-  <si>
-    <t>0.000593824</t>
-  </si>
-  <si>
-    <t>0.00030194</t>
-  </si>
-  <si>
-    <t>9.05821e-011</t>
-  </si>
-  <si>
-    <t>2.49327</t>
-  </si>
-  <si>
-    <t>0.227493</t>
   </si>
 </sst>
 </file>
@@ -3734,18 +3377,10 @@
       <c r="AH2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -3850,18 +3485,10 @@
       <c r="AH3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -3966,18 +3593,10 @@
       <c r="AH4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -4082,18 +3701,10 @@
       <c r="AH5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -4198,18 +3809,10 @@
       <c r="AH6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -4314,18 +3917,10 @@
       <c r="AH7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -4430,18 +4025,10 @@
       <c r="AH8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -4546,18 +4133,10 @@
       <c r="AH9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -4662,18 +4241,10 @@
       <c r="AH10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -4778,18 +4349,10 @@
       <c r="AH11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -4894,18 +4457,10 @@
       <c r="AH12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL12" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -5010,18 +4565,10 @@
       <c r="AH13" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="AI13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="8" t="s">
-        <v>912</v>
-      </c>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -5126,18 +4673,10 @@
       <c r="AH14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="AK14" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="AL14" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -5242,18 +4781,10 @@
       <c r="AH15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -5358,18 +4889,10 @@
       <c r="AH16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -5474,18 +4997,10 @@
       <c r="AH17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -5590,18 +5105,10 @@
       <c r="AH18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -5706,18 +5213,10 @@
       <c r="AH19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -5822,18 +5321,10 @@
       <c r="AH20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -5938,18 +5429,10 @@
       <c r="AH21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -6054,18 +5537,10 @@
       <c r="AH22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -6170,18 +5645,10 @@
       <c r="AH23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -6286,18 +5753,10 @@
       <c r="AH24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -6402,18 +5861,10 @@
       <c r="AH25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL25" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -6518,18 +5969,10 @@
       <c r="AH26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -6634,18 +6077,10 @@
       <c r="AH27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -6750,18 +6185,10 @@
       <c r="AH28" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="AI28" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="AJ28" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="AK28" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="AL28" s="8" t="s">
-        <v>913</v>
-      </c>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -6866,18 +6293,10 @@
       <c r="AH29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -6982,18 +6401,10 @@
       <c r="AH30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -7098,18 +6509,10 @@
       <c r="AH31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -7214,18 +6617,10 @@
       <c r="AH32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -7330,18 +6725,10 @@
       <c r="AH33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -7446,18 +6833,10 @@
       <c r="AH34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -7562,18 +6941,10 @@
       <c r="AH35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -7678,18 +7049,10 @@
       <c r="AH36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -7794,18 +7157,10 @@
       <c r="AH37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -7910,18 +7265,10 @@
       <c r="AH38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -8026,18 +7373,10 @@
       <c r="AH39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI39" s="8" t="s">
-        <v>828</v>
-      </c>
-      <c r="AJ39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL39" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -8142,18 +7481,10 @@
       <c r="AH40" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="AI40" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ40" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="AK40" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="AL40" s="8" t="s">
-        <v>914</v>
-      </c>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -8258,18 +7589,10 @@
       <c r="AH41" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="AI41" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="AJ41" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="AK41" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="AL41" s="8" t="s">
-        <v>915</v>
-      </c>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -8374,18 +7697,10 @@
       <c r="AH42" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="AI42" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="AJ42" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="AK42" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="AL42" s="8" t="s">
-        <v>916</v>
-      </c>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -8490,18 +7805,10 @@
       <c r="AH43" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="AI43" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="AJ43" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="AK43" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="AL43" s="8" t="s">
-        <v>917</v>
-      </c>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -8606,18 +7913,10 @@
       <c r="AH44" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="AI44" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="AJ44" s="9" t="s">
-        <v>858</v>
-      </c>
-      <c r="AK44" s="9" t="s">
-        <v>888</v>
-      </c>
-      <c r="AL44" s="9" t="s">
-        <v>918</v>
-      </c>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -8722,18 +8021,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8987,18 +8278,10 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -9103,18 +8386,10 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -9219,18 +8494,10 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -9335,18 +8602,10 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -9451,18 +8710,10 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -9567,18 +8818,10 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -9683,18 +8926,10 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -9799,18 +9034,10 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -9915,18 +9142,10 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -10031,18 +9250,10 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -10147,18 +9358,10 @@
       <c r="AH12" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>919</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -10263,18 +9466,10 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -10379,18 +9574,10 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -10495,18 +9682,10 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -10611,18 +9790,10 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -10727,18 +9898,10 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -10843,18 +10006,10 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -10959,18 +10114,10 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -11075,18 +10222,10 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -11191,18 +10330,10 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -11307,18 +10438,10 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -11423,18 +10546,10 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -11539,18 +10654,10 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -11655,18 +10762,10 @@
       <c r="AH25" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>920</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -11771,18 +10870,10 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -11887,18 +10978,10 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -12003,18 +11086,10 @@
       <c r="AH28" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="AI28" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>921</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -12119,18 +11194,10 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -12235,18 +11302,10 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -12351,18 +11410,10 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -12467,18 +11518,10 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -12583,18 +11626,10 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -12699,18 +11734,10 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -12815,18 +11842,10 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -12931,18 +11950,10 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -13047,18 +12058,10 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -13163,18 +12166,10 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -13279,18 +12274,10 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -13395,18 +12382,10 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -13511,18 +12490,10 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -13627,18 +12598,10 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -13743,18 +12706,10 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -13859,18 +12814,10 @@
       <c r="AH44" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="AJ44" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>922</v>
-      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -13975,18 +12922,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14259,18 +13198,10 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -14375,18 +13306,10 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -14491,18 +13414,10 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -14607,18 +13522,10 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -14723,18 +13630,10 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -14839,18 +13738,10 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -14955,18 +13846,10 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -15071,18 +13954,10 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -15187,18 +14062,10 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -15303,18 +14170,10 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -15419,18 +14278,10 @@
       <c r="AH12" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>923</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -15535,18 +14386,10 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -15651,18 +14494,10 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -15767,18 +14602,10 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -15883,18 +14710,10 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -15999,18 +14818,10 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -16115,18 +14926,10 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -16231,18 +15034,10 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -16347,18 +15142,10 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -16463,18 +15250,10 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -16579,18 +15358,10 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -16695,18 +15466,10 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -16811,18 +15574,10 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -16927,18 +15682,10 @@
       <c r="AH25" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>924</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -17043,18 +15790,10 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -17159,18 +15898,10 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -17275,18 +16006,10 @@
       <c r="AH28" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="AI28" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>925</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -17391,18 +16114,10 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -17507,18 +16222,10 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -17623,18 +16330,10 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -17739,18 +16438,10 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -17855,18 +16546,10 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -17971,18 +16654,10 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -18087,18 +16762,10 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -18203,18 +16870,10 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -18319,18 +16978,10 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -18435,18 +17086,10 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -18551,18 +17194,10 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -18667,18 +17302,10 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -18783,18 +17410,10 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -18899,18 +17518,10 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -19015,18 +17626,10 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -19131,18 +17734,10 @@
       <c r="AH44" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="AJ44" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>926</v>
-      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -19247,18 +17842,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19531,18 +18118,10 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -19647,18 +18226,10 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -19763,18 +18334,10 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -19879,18 +18442,10 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -19995,18 +18550,10 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -20111,18 +18658,10 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -20227,18 +18766,10 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -20343,18 +18874,10 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -20459,18 +18982,10 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -20575,18 +19090,10 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -20691,18 +19198,10 @@
       <c r="AH12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -20807,18 +19306,10 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -20923,18 +19414,10 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -21039,18 +19522,10 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -21155,18 +19630,10 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -21271,18 +19738,10 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -21387,18 +19846,10 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -21503,18 +19954,10 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -21619,18 +20062,10 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -21735,18 +20170,10 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -21851,18 +20278,10 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -21967,18 +20386,10 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -22083,18 +20494,10 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -22199,18 +20602,10 @@
       <c r="AH25" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>927</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -22315,18 +20710,10 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -22431,18 +20818,10 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -22547,18 +20926,10 @@
       <c r="AH28" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="AI28" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -22663,18 +21034,10 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -22779,18 +21142,10 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -22895,18 +21250,10 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -23011,18 +21358,10 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -23127,18 +21466,10 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -23243,18 +21574,10 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -23359,18 +21682,10 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -23475,18 +21790,10 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -23591,18 +21898,10 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -23707,18 +22006,10 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -23823,18 +22114,10 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -23939,18 +22222,10 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -24055,18 +22330,10 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -24171,18 +22438,10 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -24287,18 +22546,10 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -24403,18 +22654,10 @@
       <c r="AH44" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="AJ44" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>928</v>
-      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -24519,18 +22762,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24803,18 +23038,10 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -24919,18 +23146,10 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -25035,18 +23254,10 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -25151,18 +23362,10 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -25267,18 +23470,10 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -25383,18 +23578,10 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -25499,18 +23686,10 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -25615,18 +23794,10 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -25731,18 +23902,10 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>929</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -25847,18 +24010,10 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -25963,18 +24118,10 @@
       <c r="AH12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -26079,18 +24226,10 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -26195,18 +24334,10 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -26311,18 +24442,10 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -26427,18 +24550,10 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -26543,18 +24658,10 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -26659,18 +24766,10 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -26775,18 +24874,10 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -26891,18 +24982,10 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -27007,18 +25090,10 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -27123,18 +25198,10 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -27239,18 +25306,10 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -27355,18 +25414,10 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -27471,18 +25522,10 @@
       <c r="AH25" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>930</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -27587,18 +25630,10 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -27703,18 +25738,10 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -27819,18 +25846,10 @@
       <c r="AH28" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="AI28" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -27935,18 +25954,10 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -28051,18 +26062,10 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -28167,18 +26170,10 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -28283,18 +26278,10 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -28399,18 +26386,10 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -28515,18 +26494,10 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -28631,18 +26602,10 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -28747,18 +26710,10 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -28863,18 +26818,10 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -28979,18 +26926,10 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -29095,18 +27034,10 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -29211,18 +27142,10 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -29327,18 +27250,10 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -29443,18 +27358,10 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -29559,18 +27466,10 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -29675,18 +27574,10 @@
       <c r="AH44" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="AJ44" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>931</v>
-      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -29791,18 +27682,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30072,21 +27955,11 @@
       <c r="AG2" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>932</v>
-      </c>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -30188,21 +28061,11 @@
       <c r="AG3" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="AH3" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>933</v>
-      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -30304,21 +28167,11 @@
       <c r="AG4" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="AH4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -30420,21 +28273,11 @@
       <c r="AG5" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="AH5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -30536,21 +28379,11 @@
       <c r="AG6" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="AH6" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>934</v>
-      </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
@@ -30652,21 +28485,11 @@
       <c r="AG7" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="AH7" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>935</v>
-      </c>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -30768,21 +28591,11 @@
       <c r="AG8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31052,21 +28865,11 @@
       <c r="AG2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -31168,21 +28971,11 @@
       <c r="AG3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -31284,21 +29077,11 @@
       <c r="AG4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -31400,21 +29183,11 @@
       <c r="AG5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -31516,21 +29289,11 @@
       <c r="AG6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -31632,21 +29395,11 @@
       <c r="AG7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -31748,21 +29501,11 @@
       <c r="AG8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -31864,21 +29607,11 @@
       <c r="AG9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -31980,21 +29713,11 @@
       <c r="AG10" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="AH10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -32096,21 +29819,11 @@
       <c r="AG11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -32212,21 +29925,11 @@
       <c r="AG12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -32328,21 +30031,11 @@
       <c r="AG13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -32444,21 +30137,11 @@
       <c r="AG14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -32560,21 +30243,11 @@
       <c r="AG15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -32676,21 +30349,11 @@
       <c r="AG16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -32792,21 +30455,11 @@
       <c r="AG17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -32908,21 +30561,11 @@
       <c r="AG18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -33024,21 +30667,11 @@
       <c r="AG19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -33140,21 +30773,11 @@
       <c r="AG20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -33256,21 +30879,11 @@
       <c r="AG21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -33372,21 +30985,11 @@
       <c r="AG22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -33488,21 +31091,11 @@
       <c r="AG23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -33604,21 +31197,11 @@
       <c r="AG24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -33720,21 +31303,11 @@
       <c r="AG25" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="AH25" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>936</v>
-      </c>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -33836,21 +31409,11 @@
       <c r="AG26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -33952,21 +31515,11 @@
       <c r="AG27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -34068,21 +31621,11 @@
       <c r="AG28" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="AH28" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="AI28" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -34184,21 +31727,11 @@
       <c r="AG29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -34300,21 +31833,11 @@
       <c r="AG30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -34416,21 +31939,11 @@
       <c r="AG31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -34532,21 +32045,11 @@
       <c r="AG32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -34648,21 +32151,11 @@
       <c r="AG33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -34764,21 +32257,11 @@
       <c r="AG34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -34880,21 +32363,11 @@
       <c r="AG35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -34996,21 +32469,11 @@
       <c r="AG36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -35112,21 +32575,11 @@
       <c r="AG37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -35228,21 +32681,11 @@
       <c r="AG38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -35344,21 +32787,11 @@
       <c r="AG39" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="AH39" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="AI39" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="AJ39" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="AK39" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="AL39" s="4" t="s">
-        <v>937</v>
-      </c>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -35460,21 +32893,11 @@
       <c r="AG40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL40" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -35576,21 +32999,11 @@
       <c r="AG41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL41" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -35692,21 +33105,11 @@
       <c r="AG42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL42" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9330" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29162" uniqueCount="938">
   <si>
     <t>ANSPs</t>
   </si>
@@ -2738,6 +2738,363 @@
   </si>
   <si>
     <t>2.10194</t>
+  </si>
+  <si>
+    <t>3.05739e-006</t>
+  </si>
+  <si>
+    <t>0.00111607</t>
+  </si>
+  <si>
+    <t>0.000369237</t>
+  </si>
+  <si>
+    <t>1.10771e-010</t>
+  </si>
+  <si>
+    <t>1.67241</t>
+  </si>
+  <si>
+    <t>0.193214</t>
+  </si>
+  <si>
+    <t>0.317168</t>
+  </si>
+  <si>
+    <t>0.0622929</t>
+  </si>
+  <si>
+    <t>0.937707</t>
+  </si>
+  <si>
+    <t>90851</t>
+  </si>
+  <si>
+    <t>574880</t>
+  </si>
+  <si>
+    <t>217081</t>
+  </si>
+  <si>
+    <t>188.097</t>
+  </si>
+  <si>
+    <t>883000</t>
+  </si>
+  <si>
+    <t>0.32089</t>
+  </si>
+  <si>
+    <t>0.67911</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.0495745</t>
+  </si>
+  <si>
+    <t>0.933693</t>
+  </si>
+  <si>
+    <t>0.0167325</t>
+  </si>
+  <si>
+    <t>1.48928</t>
+  </si>
+  <si>
+    <t>0.767641</t>
+  </si>
+  <si>
+    <t>0.568309</t>
+  </si>
+  <si>
+    <t>1.35075</t>
+  </si>
+  <si>
+    <t>1.75961</t>
+  </si>
+  <si>
+    <t>1.71105e-006</t>
+  </si>
+  <si>
+    <t>0.00138122</t>
+  </si>
+  <si>
+    <t>2.90936e-008</t>
+  </si>
+  <si>
+    <t>7.51698e-008</t>
+  </si>
+  <si>
+    <t>0.00028243</t>
+  </si>
+  <si>
+    <t>0.101675</t>
+  </si>
+  <si>
+    <t>0.511761</t>
+  </si>
+  <si>
+    <t>0.378873</t>
+  </si>
+  <si>
+    <t>0.887891</t>
+  </si>
+  <si>
+    <t>0.112109</t>
+  </si>
+  <si>
+    <t>14.7845</t>
+  </si>
+  <si>
+    <t>82751</t>
+  </si>
+  <si>
+    <t>75162.7</t>
+  </si>
+  <si>
+    <t>35.83</t>
+  </si>
+  <si>
+    <t>157964</t>
+  </si>
+  <si>
+    <t>0.684982</t>
+  </si>
+  <si>
+    <t>0.251308</t>
+  </si>
+  <si>
+    <t>0.0637104</t>
+  </si>
+  <si>
+    <t>0.758554</t>
+  </si>
+  <si>
+    <t>0.126231</t>
+  </si>
+  <si>
+    <t>0.737607</t>
+  </si>
+  <si>
+    <t>0.136163</t>
+  </si>
+  <si>
+    <t>1.31351</t>
+  </si>
+  <si>
+    <t>1.16199</t>
+  </si>
+  <si>
+    <t>0.0313476</t>
+  </si>
+  <si>
+    <t>0.756315</t>
+  </si>
+  <si>
+    <t>1.53638</t>
+  </si>
+  <si>
+    <t>0.0414478</t>
+  </si>
+  <si>
+    <t>1.3222</t>
+  </si>
+  <si>
+    <t>0.000115678</t>
+  </si>
+  <si>
+    <t>0.00549451</t>
+  </si>
+  <si>
+    <t>1.10103e-005</t>
+  </si>
+  <si>
+    <t>4.81601e-008</t>
+  </si>
+  <si>
+    <t>0.00275245</t>
+  </si>
+  <si>
+    <t>0.00825734</t>
+  </si>
+  <si>
+    <t>0.77466</t>
+  </si>
+  <si>
+    <t>0.0208984</t>
+  </si>
+  <si>
+    <t>0.50421</t>
+  </si>
+  <si>
+    <t>0.528475</t>
+  </si>
+  <si>
+    <t>0.471525</t>
+  </si>
+  <si>
+    <t>123.151</t>
+  </si>
+  <si>
+    <t>337111</t>
+  </si>
+  <si>
+    <t>87263.5</t>
+  </si>
+  <si>
+    <t>133.669</t>
+  </si>
+  <si>
+    <t>424632</t>
+  </si>
+  <si>
+    <t>0.00505311</t>
+  </si>
+  <si>
+    <t>0.712055</t>
+  </si>
+  <si>
+    <t>0.282892</t>
+  </si>
+  <si>
+    <t>0.691427</t>
+  </si>
+  <si>
+    <t>0.0240635</t>
+  </si>
+  <si>
+    <t>0.565294</t>
+  </si>
+  <si>
+    <t>0.410642</t>
+  </si>
+  <si>
+    <t>1.40252</t>
+  </si>
+  <si>
+    <t>2.71878</t>
+  </si>
+  <si>
+    <t>0.330104</t>
+  </si>
+  <si>
+    <t>0.620951</t>
+  </si>
+  <si>
+    <t>4.3784</t>
+  </si>
+  <si>
+    <t>0.531609</t>
+  </si>
+  <si>
+    <t>1.61043</t>
+  </si>
+  <si>
+    <t>6.50212e-006</t>
+  </si>
+  <si>
+    <t>0.00180505</t>
+  </si>
+  <si>
+    <t>2.53125e-009</t>
+  </si>
+  <si>
+    <t>6.09025e-009</t>
+  </si>
+  <si>
+    <t>0.000698079</t>
+  </si>
+  <si>
+    <t>0.00418848</t>
+  </si>
+  <si>
+    <t>1.81252</t>
+  </si>
+  <si>
+    <t>0.220069</t>
+  </si>
+  <si>
+    <t>0.413968</t>
+  </si>
+  <si>
+    <t>0.00990632</t>
+  </si>
+  <si>
+    <t>0.990094</t>
+  </si>
+  <si>
+    <t>549.096</t>
+  </si>
+  <si>
+    <t>1.36254e+006</t>
+  </si>
+  <si>
+    <t>316340</t>
+  </si>
+  <si>
+    <t>296.87</t>
+  </si>
+  <si>
+    <t>1.67973e+006</t>
+  </si>
+  <si>
+    <t>0.134143</t>
+  </si>
+  <si>
+    <t>0.823573</t>
+  </si>
+  <si>
+    <t>0.0422835</t>
+  </si>
+  <si>
+    <t>0.442709</t>
+  </si>
+  <si>
+    <t>0.338942</t>
+  </si>
+  <si>
+    <t>0.529608</t>
+  </si>
+  <si>
+    <t>0.131449</t>
+  </si>
+  <si>
+    <t>2.16153</t>
+  </si>
+  <si>
+    <t>3.73991</t>
+  </si>
+  <si>
+    <t>0.341239</t>
+  </si>
+  <si>
+    <t>-1.38198e-009</t>
+  </si>
+  <si>
+    <t>10.9598</t>
+  </si>
+  <si>
+    <t>2.9305</t>
+  </si>
+  <si>
+    <t>3.20735e-006</t>
+  </si>
+  <si>
+    <t>0.000593824</t>
+  </si>
+  <si>
+    <t>0.00030194</t>
+  </si>
+  <si>
+    <t>9.05821e-011</t>
+  </si>
+  <si>
+    <t>2.49327</t>
+  </si>
+  <si>
+    <t>0.227493</t>
   </si>
 </sst>
 </file>
@@ -3377,10 +3734,18 @@
       <c r="AH2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
+      <c r="AI2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -3485,10 +3850,18 @@
       <c r="AH3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
+      <c r="AI3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -3593,10 +3966,18 @@
       <c r="AH4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
+      <c r="AI4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -3701,10 +4082,18 @@
       <c r="AH5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
+      <c r="AI5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -3809,10 +4198,18 @@
       <c r="AH6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
+      <c r="AI6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -3917,10 +4314,18 @@
       <c r="AH7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
+      <c r="AI7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -4025,10 +4430,18 @@
       <c r="AH8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AI8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -4133,10 +4546,18 @@
       <c r="AH9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
+      <c r="AI9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -4241,10 +4662,18 @@
       <c r="AH10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
+      <c r="AI10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -4349,10 +4778,18 @@
       <c r="AH11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
+      <c r="AI11" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -4457,10 +4894,18 @@
       <c r="AH12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
+      <c r="AI12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -4565,10 +5010,18 @@
       <c r="AH13" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
+      <c r="AI13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -4673,10 +5126,18 @@
       <c r="AH14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
+      <c r="AI14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -4781,10 +5242,18 @@
       <c r="AH15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
+      <c r="AI15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -4889,10 +5358,18 @@
       <c r="AH16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
+      <c r="AI16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -4997,10 +5474,18 @@
       <c r="AH17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
+      <c r="AI17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -5105,10 +5590,18 @@
       <c r="AH18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
+      <c r="AI18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -5213,10 +5706,18 @@
       <c r="AH19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
+      <c r="AI19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -5321,10 +5822,18 @@
       <c r="AH20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
+      <c r="AI20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -5429,10 +5938,18 @@
       <c r="AH21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
+      <c r="AI21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -5537,10 +6054,18 @@
       <c r="AH22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
+      <c r="AI22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -5645,10 +6170,18 @@
       <c r="AH23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
+      <c r="AI23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -5753,10 +6286,18 @@
       <c r="AH24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
+      <c r="AI24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -5861,10 +6402,18 @@
       <c r="AH25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
+      <c r="AI25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL25" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -5969,10 +6518,18 @@
       <c r="AH26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
+      <c r="AI26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -6077,10 +6634,18 @@
       <c r="AH27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
+      <c r="AI27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -6185,10 +6750,18 @@
       <c r="AH28" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
+      <c r="AI28" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="AK28" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="AL28" s="8" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -6293,10 +6866,18 @@
       <c r="AH29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
+      <c r="AI29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -6401,10 +6982,18 @@
       <c r="AH30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
+      <c r="AI30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -6509,10 +7098,18 @@
       <c r="AH31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
+      <c r="AI31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -6617,10 +7214,18 @@
       <c r="AH32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
+      <c r="AI32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -6725,10 +7330,18 @@
       <c r="AH33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
+      <c r="AI33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -6833,10 +7446,18 @@
       <c r="AH34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
+      <c r="AI34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -6941,10 +7562,18 @@
       <c r="AH35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
+      <c r="AI35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -7049,10 +7678,18 @@
       <c r="AH36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
+      <c r="AI36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -7157,10 +7794,18 @@
       <c r="AH37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="8"/>
-      <c r="AK37" s="8"/>
-      <c r="AL37" s="8"/>
+      <c r="AI37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -7265,10 +7910,18 @@
       <c r="AH38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
+      <c r="AI38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -7373,10 +8026,18 @@
       <c r="AH39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
+      <c r="AI39" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="AJ39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL39" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -7481,10 +8142,18 @@
       <c r="AH40" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
+      <c r="AI40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="AK40" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="AL40" s="8" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -7589,10 +8258,18 @@
       <c r="AH41" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="8"/>
+      <c r="AI41" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="AJ41" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="AK41" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="AL41" s="8" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -7697,10 +8374,18 @@
       <c r="AH42" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="8"/>
+      <c r="AI42" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="AJ42" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="AK42" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="AL42" s="8" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -7805,10 +8490,18 @@
       <c r="AH43" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
+      <c r="AI43" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="AJ43" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="AK43" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="AL43" s="8" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -7913,10 +8606,18 @@
       <c r="AH44" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="AI44" s="9"/>
-      <c r="AJ44" s="9"/>
-      <c r="AK44" s="9"/>
-      <c r="AL44" s="9"/>
+      <c r="AI44" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="AJ44" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="AK44" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="AL44" s="9" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -8021,10 +8722,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8278,10 +8987,18 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -8386,10 +9103,18 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -8494,10 +9219,18 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -8602,10 +9335,18 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -8710,10 +9451,18 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -8818,10 +9567,18 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -8926,10 +9683,18 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -9034,10 +9799,18 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -9142,10 +9915,18 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -9250,10 +10031,18 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -9358,10 +10147,18 @@
       <c r="AH12" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -9466,10 +10263,18 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -9574,10 +10379,18 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -9682,10 +10495,18 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -9790,10 +10611,18 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -9898,10 +10727,18 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -10006,10 +10843,18 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -10114,10 +10959,18 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -10222,10 +11075,18 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -10330,10 +11191,18 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -10438,10 +11307,18 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -10546,10 +11423,18 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -10654,10 +11539,18 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -10762,10 +11655,18 @@
       <c r="AH25" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -10870,10 +11771,18 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -10978,10 +11887,18 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -11086,10 +12003,18 @@
       <c r="AH28" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -11194,10 +12119,18 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -11302,10 +12235,18 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -11410,10 +12351,18 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -11518,10 +12467,18 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -11626,10 +12583,18 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -11734,10 +12699,18 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -11842,10 +12815,18 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -11950,10 +12931,18 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -12058,10 +13047,18 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -12166,10 +13163,18 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -12274,10 +13279,18 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -12382,10 +13395,18 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -12490,10 +13511,18 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AI41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -12598,10 +13627,18 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AI42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -12706,10 +13743,18 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AI43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -12814,10 +13859,18 @@
       <c r="AH44" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
+      <c r="AI44" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -12922,10 +13975,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13198,10 +14259,18 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -13306,10 +14375,18 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -13414,10 +14491,18 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -13522,10 +14607,18 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -13630,10 +14723,18 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -13738,10 +14839,18 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -13846,10 +14955,18 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -13954,10 +15071,18 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -14062,10 +15187,18 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -14170,10 +15303,18 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -14278,10 +15419,18 @@
       <c r="AH12" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -14386,10 +15535,18 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -14494,10 +15651,18 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -14602,10 +15767,18 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -14710,10 +15883,18 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -14818,10 +15999,18 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -14926,10 +16115,18 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -15034,10 +16231,18 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -15142,10 +16347,18 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -15250,10 +16463,18 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -15358,10 +16579,18 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -15466,10 +16695,18 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -15574,10 +16811,18 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -15682,10 +16927,18 @@
       <c r="AH25" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -15790,10 +17043,18 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -15898,10 +17159,18 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -16006,10 +17275,18 @@
       <c r="AH28" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -16114,10 +17391,18 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -16222,10 +17507,18 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -16330,10 +17623,18 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -16438,10 +17739,18 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -16546,10 +17855,18 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -16654,10 +17971,18 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -16762,10 +18087,18 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -16870,10 +18203,18 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -16978,10 +18319,18 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -17086,10 +18435,18 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -17194,10 +18551,18 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -17302,10 +18667,18 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -17410,10 +18783,18 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AI41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -17518,10 +18899,18 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AI42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -17626,10 +19015,18 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AI43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -17734,10 +19131,18 @@
       <c r="AH44" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
+      <c r="AI44" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -17842,10 +19247,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18118,10 +19531,18 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -18226,10 +19647,18 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -18334,10 +19763,18 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -18442,10 +19879,18 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -18550,10 +19995,18 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -18658,10 +20111,18 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -18766,10 +20227,18 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -18874,10 +20343,18 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -18982,10 +20459,18 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -19090,10 +20575,18 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -19198,10 +20691,18 @@
       <c r="AH12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -19306,10 +20807,18 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -19414,10 +20923,18 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -19522,10 +21039,18 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -19630,10 +21155,18 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -19738,10 +21271,18 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -19846,10 +21387,18 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -19954,10 +21503,18 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -20062,10 +21619,18 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -20170,10 +21735,18 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -20278,10 +21851,18 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -20386,10 +21967,18 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -20494,10 +22083,18 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -20602,10 +22199,18 @@
       <c r="AH25" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -20710,10 +22315,18 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -20818,10 +22431,18 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -20926,10 +22547,18 @@
       <c r="AH28" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -21034,10 +22663,18 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -21142,10 +22779,18 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -21250,10 +22895,18 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -21358,10 +23011,18 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -21466,10 +23127,18 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -21574,10 +23243,18 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -21682,10 +23359,18 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -21790,10 +23475,18 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -21898,10 +23591,18 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -22006,10 +23707,18 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -22114,10 +23823,18 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -22222,10 +23939,18 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -22330,10 +24055,18 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AI41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -22438,10 +24171,18 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AI42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -22546,10 +24287,18 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AI43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -22654,10 +24403,18 @@
       <c r="AH44" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
+      <c r="AI44" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -22762,10 +24519,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23038,10 +24803,18 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -23146,10 +24919,18 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -23254,10 +25035,18 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -23362,10 +25151,18 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -23470,10 +25267,18 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -23578,10 +25383,18 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -23686,10 +25499,18 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -23794,10 +25615,18 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -23902,10 +25731,18 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -24010,10 +25847,18 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -24118,10 +25963,18 @@
       <c r="AH12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -24226,10 +26079,18 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -24334,10 +26195,18 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -24442,10 +26311,18 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -24550,10 +26427,18 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -24658,10 +26543,18 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -24766,10 +26659,18 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -24874,10 +26775,18 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -24982,10 +26891,18 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -25090,10 +27007,18 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -25198,10 +27123,18 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -25306,10 +27239,18 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -25414,10 +27355,18 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -25522,10 +27471,18 @@
       <c r="AH25" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -25630,10 +27587,18 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -25738,10 +27703,18 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -25846,10 +27819,18 @@
       <c r="AH28" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -25954,10 +27935,18 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -26062,10 +28051,18 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -26170,10 +28167,18 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -26278,10 +28283,18 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -26386,10 +28399,18 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -26494,10 +28515,18 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -26602,10 +28631,18 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -26710,10 +28747,18 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -26818,10 +28863,18 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -26926,10 +28979,18 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -27034,10 +29095,18 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -27142,10 +29211,18 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -27250,10 +29327,18 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AI41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -27358,10 +29443,18 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AI42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -27466,10 +29559,18 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AI43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -27574,10 +29675,18 @@
       <c r="AH44" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
+      <c r="AI44" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -27682,10 +29791,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27955,11 +30072,21 @@
       <c r="AG2" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AH2" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -28061,11 +30188,21 @@
       <c r="AG3" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AH3" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -28167,11 +30304,21 @@
       <c r="AG4" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AH4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -28273,11 +30420,21 @@
       <c r="AG5" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AH5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -28379,11 +30536,21 @@
       <c r="AG6" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AH6" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
@@ -28485,11 +30652,21 @@
       <c r="AG7" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
+      <c r="AH7" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -28591,11 +30768,21 @@
       <c r="AG8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AH8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28865,11 +31052,21 @@
       <c r="AG2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AH2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -28971,11 +31168,21 @@
       <c r="AG3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AH3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -29077,11 +31284,21 @@
       <c r="AG4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AH4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -29183,11 +31400,21 @@
       <c r="AG5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AH5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -29289,11 +31516,21 @@
       <c r="AG6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AH6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -29395,11 +31632,21 @@
       <c r="AG7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AH7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -29501,11 +31748,21 @@
       <c r="AG8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AH8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -29607,11 +31864,21 @@
       <c r="AG9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AH9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -29713,11 +31980,21 @@
       <c r="AG10" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AH10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -29819,11 +32096,21 @@
       <c r="AG11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AH11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -29925,11 +32212,21 @@
       <c r="AG12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AH12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -30031,11 +32328,21 @@
       <c r="AG13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AH13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -30137,11 +32444,21 @@
       <c r="AG14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AH14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -30243,11 +32560,21 @@
       <c r="AG15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AH15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -30349,11 +32676,21 @@
       <c r="AG16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AH16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -30455,11 +32792,21 @@
       <c r="AG17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AH17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -30561,11 +32908,21 @@
       <c r="AG18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AH18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -30667,11 +33024,21 @@
       <c r="AG19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AH19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -30773,11 +33140,21 @@
       <c r="AG20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AH20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -30879,11 +33256,21 @@
       <c r="AG21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AH21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -30985,11 +33372,21 @@
       <c r="AG22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AH22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -31091,11 +33488,21 @@
       <c r="AG23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AH23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -31197,11 +33604,21 @@
       <c r="AG24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AH24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -31303,11 +33720,21 @@
       <c r="AG25" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AH25" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -31409,11 +33836,21 @@
       <c r="AG26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AH26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -31515,11 +33952,21 @@
       <c r="AG27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AH27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -31621,11 +34068,21 @@
       <c r="AG28" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AH28" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="AI28" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -31727,11 +34184,21 @@
       <c r="AG29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AH29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -31833,11 +34300,21 @@
       <c r="AG30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AH30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -31939,11 +34416,21 @@
       <c r="AG31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AH31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -32045,11 +34532,21 @@
       <c r="AG32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AH32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -32151,11 +34648,21 @@
       <c r="AG33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AH33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -32257,11 +34764,21 @@
       <c r="AG34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AH34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -32363,11 +34880,21 @@
       <c r="AG35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AH35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -32469,11 +34996,21 @@
       <c r="AG36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AH36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -32575,11 +35112,21 @@
       <c r="AG37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AH37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -32681,11 +35228,21 @@
       <c r="AG38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AH38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -32787,11 +35344,21 @@
       <c r="AG39" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
+      <c r="AH39" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="AK39" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="AL39" s="4" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -32893,11 +35460,21 @@
       <c r="AG40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
+      <c r="AH40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL40" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -32999,11 +35576,21 @@
       <c r="AG41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
+      <c r="AH41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL41" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -33105,11 +35692,21 @@
       <c r="AG42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
+      <c r="AH42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL42" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29162" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69085" uniqueCount="938">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69085" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90434" uniqueCount="938">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31906,10 +31906,10 @@
         <v>90</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>90</v>
@@ -31918,7 +31918,7 @@
         <v>90</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>90</v>
@@ -31933,7 +31933,7 @@
         <v>90</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>90</v>
@@ -31969,7 +31969,7 @@
         <v>90</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>90</v>
@@ -31978,7 +31978,7 @@
         <v>90</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="AH10" s="5" t="s">
         <v>90</v>
@@ -32349,13 +32349,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>90</v>
@@ -32367,10 +32367,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32385,7 +32385,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32400,7 +32400,7 @@
         <v>90</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>90</v>
@@ -32409,7 +32409,7 @@
         <v>90</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>90</v>
@@ -32424,7 +32424,7 @@
         <v>90</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>90</v>
@@ -32439,7 +32439,7 @@
         <v>90</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>90</v>
@@ -32451,10 +32451,10 @@
         <v>90</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -33637,7 +33637,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>90</v>
@@ -33646,7 +33646,7 @@
         <v>90</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>90</v>
@@ -33655,34 +33655,34 @@
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33694,7 +33694,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33709,19 +33709,19 @@
         <v>90</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33730,10 +33730,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26">
@@ -33747,7 +33747,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33801,7 +33801,7 @@
         <v>90</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>90</v>
@@ -33813,10 +33813,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33831,7 +33831,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>90</v>
@@ -33973,73 +33973,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -34051,31 +34051,31 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>90</v>
@@ -35249,115 +35249,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="40">
@@ -35365,115 +35365,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35481,115 +35481,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>108</v>
+        <v>374</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>108</v>
+        <v>435</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>108</v>
+        <v>466</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>108</v>
+        <v>498</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>108</v>
+        <v>526</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>108</v>
+        <v>554</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>108</v>
+        <v>584</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>108</v>
+        <v>598</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>108</v>
+        <v>623</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>108</v>
+        <v>646</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>108</v>
+        <v>663</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>108</v>
+        <v>692</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>108</v>
+        <v>723</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>108</v>
+        <v>751</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>108</v>
+        <v>783</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>108</v>
+        <v>815</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>108</v>
+        <v>841</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>108</v>
+        <v>869</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>108</v>
+        <v>899</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>108</v>
+        <v>928</v>
       </c>
     </row>
     <row r="42">
